--- a/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y175"/>
+  <dimension ref="A1:Y176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14181,7 +14184,7 @@
         <v>182</v>
       </c>
       <c r="B173">
-        <v>117421</v>
+        <v>117419</v>
       </c>
       <c r="C173">
         <v>22981</v>
@@ -14193,16 +14196,16 @@
         <v>38701</v>
       </c>
       <c r="F173">
-        <v>8525</v>
+        <v>8604</v>
       </c>
       <c r="G173">
-        <v>5230</v>
+        <v>5167</v>
       </c>
       <c r="H173">
-        <v>2756</v>
+        <v>2743</v>
       </c>
       <c r="I173">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="J173">
         <v>25142</v>
@@ -14229,7 +14232,7 @@
         <v>162</v>
       </c>
       <c r="R173">
-        <v>92279</v>
+        <v>92277</v>
       </c>
       <c r="S173">
         <v>18161</v>
@@ -14241,16 +14244,16 @@
         <v>30653</v>
       </c>
       <c r="V173">
-        <v>7374</v>
+        <v>7453</v>
       </c>
       <c r="W173">
-        <v>4650</v>
+        <v>4587</v>
       </c>
       <c r="X173">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="Y173">
-        <v>1393</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -14258,7 +14261,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>102426</v>
+        <v>102419</v>
       </c>
       <c r="C174">
         <v>18363</v>
@@ -14267,19 +14270,19 @@
         <v>29767</v>
       </c>
       <c r="E174">
-        <v>36702</v>
+        <v>36916</v>
       </c>
       <c r="F174">
-        <v>7680</v>
+        <v>7722</v>
       </c>
       <c r="G174">
-        <v>4916</v>
+        <v>4656</v>
       </c>
       <c r="H174">
         <v>2540</v>
       </c>
       <c r="I174">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="J174">
         <v>20768</v>
@@ -14306,7 +14309,7 @@
         <v>560</v>
       </c>
       <c r="R174">
-        <v>81657</v>
+        <v>81650</v>
       </c>
       <c r="S174">
         <v>14334</v>
@@ -14315,19 +14318,19 @@
         <v>23218</v>
       </c>
       <c r="U174">
-        <v>28854</v>
+        <v>29067</v>
       </c>
       <c r="V174">
-        <v>6912</v>
+        <v>6954</v>
       </c>
       <c r="W174">
-        <v>4266</v>
+        <v>4006</v>
       </c>
       <c r="X174">
         <v>2177</v>
       </c>
       <c r="Y174">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -14335,28 +14338,28 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>94944</v>
+        <v>94943</v>
       </c>
       <c r="C175">
         <v>18542</v>
       </c>
       <c r="D175">
-        <v>29506</v>
+        <v>29765</v>
       </c>
       <c r="E175">
-        <v>28915</v>
+        <v>29455</v>
       </c>
       <c r="F175">
-        <v>7390</v>
+        <v>6894</v>
       </c>
       <c r="G175">
-        <v>5298</v>
+        <v>5257</v>
       </c>
       <c r="H175">
-        <v>2615</v>
+        <v>2356</v>
       </c>
       <c r="I175">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="J175">
         <v>21475</v>
@@ -14383,28 +14386,105 @@
         <v>397</v>
       </c>
       <c r="R175">
-        <v>73470</v>
+        <v>73469</v>
       </c>
       <c r="S175">
         <v>13323</v>
       </c>
       <c r="T175">
-        <v>22462</v>
+        <v>22721</v>
       </c>
       <c r="U175">
-        <v>22306</v>
+        <v>22846</v>
       </c>
       <c r="V175">
-        <v>6275</v>
+        <v>5779</v>
       </c>
       <c r="W175">
-        <v>4481</v>
+        <v>4441</v>
       </c>
       <c r="X175">
-        <v>2341</v>
+        <v>2082</v>
       </c>
       <c r="Y175">
-        <v>2281</v>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176">
+        <v>88078</v>
+      </c>
+      <c r="C176">
+        <v>17689</v>
+      </c>
+      <c r="D176">
+        <v>22101</v>
+      </c>
+      <c r="E176">
+        <v>30892</v>
+      </c>
+      <c r="F176">
+        <v>6904</v>
+      </c>
+      <c r="G176">
+        <v>4865</v>
+      </c>
+      <c r="H176">
+        <v>3511</v>
+      </c>
+      <c r="I176">
+        <v>2116</v>
+      </c>
+      <c r="J176">
+        <v>18554</v>
+      </c>
+      <c r="K176">
+        <v>4426</v>
+      </c>
+      <c r="L176">
+        <v>5691</v>
+      </c>
+      <c r="M176">
+        <v>6202</v>
+      </c>
+      <c r="N176">
+        <v>666</v>
+      </c>
+      <c r="O176">
+        <v>517</v>
+      </c>
+      <c r="P176">
+        <v>901</v>
+      </c>
+      <c r="Q176">
+        <v>150</v>
+      </c>
+      <c r="R176">
+        <v>69524</v>
+      </c>
+      <c r="S176">
+        <v>13263</v>
+      </c>
+      <c r="T176">
+        <v>16410</v>
+      </c>
+      <c r="U176">
+        <v>24690</v>
+      </c>
+      <c r="V176">
+        <v>6237</v>
+      </c>
+      <c r="W176">
+        <v>4348</v>
+      </c>
+      <c r="X176">
+        <v>2610</v>
+      </c>
+      <c r="Y176">
+        <v>1966</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y176"/>
+  <dimension ref="A1:Y177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14261,7 +14264,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>102419</v>
+        <v>102414</v>
       </c>
       <c r="C174">
         <v>18363</v>
@@ -14270,13 +14273,13 @@
         <v>29767</v>
       </c>
       <c r="E174">
-        <v>36916</v>
+        <v>36920</v>
       </c>
       <c r="F174">
-        <v>7722</v>
+        <v>7796</v>
       </c>
       <c r="G174">
-        <v>4656</v>
+        <v>4574</v>
       </c>
       <c r="H174">
         <v>2540</v>
@@ -14309,7 +14312,7 @@
         <v>560</v>
       </c>
       <c r="R174">
-        <v>81650</v>
+        <v>81645</v>
       </c>
       <c r="S174">
         <v>14334</v>
@@ -14318,13 +14321,13 @@
         <v>23218</v>
       </c>
       <c r="U174">
-        <v>29067</v>
+        <v>29071</v>
       </c>
       <c r="V174">
-        <v>6954</v>
+        <v>7027</v>
       </c>
       <c r="W174">
-        <v>4006</v>
+        <v>3924</v>
       </c>
       <c r="X174">
         <v>2177</v>
@@ -14338,7 +14341,7 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>94943</v>
+        <v>94993</v>
       </c>
       <c r="C175">
         <v>18542</v>
@@ -14347,19 +14350,19 @@
         <v>29765</v>
       </c>
       <c r="E175">
-        <v>29455</v>
+        <v>29681</v>
       </c>
       <c r="F175">
-        <v>6894</v>
+        <v>6882</v>
       </c>
       <c r="G175">
-        <v>5257</v>
+        <v>5205</v>
       </c>
       <c r="H175">
-        <v>2356</v>
+        <v>2347</v>
       </c>
       <c r="I175">
-        <v>2674</v>
+        <v>2571</v>
       </c>
       <c r="J175">
         <v>21475</v>
@@ -14386,7 +14389,7 @@
         <v>397</v>
       </c>
       <c r="R175">
-        <v>73469</v>
+        <v>73519</v>
       </c>
       <c r="S175">
         <v>13323</v>
@@ -14395,19 +14398,19 @@
         <v>22721</v>
       </c>
       <c r="U175">
-        <v>22846</v>
+        <v>23072</v>
       </c>
       <c r="V175">
-        <v>5779</v>
+        <v>5767</v>
       </c>
       <c r="W175">
-        <v>4441</v>
+        <v>4389</v>
       </c>
       <c r="X175">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="Y175">
-        <v>2277</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14415,25 +14418,25 @@
         <v>185</v>
       </c>
       <c r="B176">
-        <v>88078</v>
+        <v>88072</v>
       </c>
       <c r="C176">
         <v>17689</v>
       </c>
       <c r="D176">
-        <v>22101</v>
+        <v>22216</v>
       </c>
       <c r="E176">
-        <v>30892</v>
+        <v>31134</v>
       </c>
       <c r="F176">
-        <v>6904</v>
+        <v>6704</v>
       </c>
       <c r="G176">
-        <v>4865</v>
+        <v>4755</v>
       </c>
       <c r="H176">
-        <v>3511</v>
+        <v>3458</v>
       </c>
       <c r="I176">
         <v>2116</v>
@@ -14463,28 +14466,105 @@
         <v>150</v>
       </c>
       <c r="R176">
-        <v>69524</v>
+        <v>69519</v>
       </c>
       <c r="S176">
         <v>13263</v>
       </c>
       <c r="T176">
-        <v>16410</v>
+        <v>16524</v>
       </c>
       <c r="U176">
-        <v>24690</v>
+        <v>24932</v>
       </c>
       <c r="V176">
-        <v>6237</v>
+        <v>6038</v>
       </c>
       <c r="W176">
-        <v>4348</v>
+        <v>4238</v>
       </c>
       <c r="X176">
-        <v>2610</v>
+        <v>2557</v>
       </c>
       <c r="Y176">
         <v>1966</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177">
+        <v>93932</v>
+      </c>
+      <c r="C177">
+        <v>16296</v>
+      </c>
+      <c r="D177">
+        <v>25976</v>
+      </c>
+      <c r="E177">
+        <v>31944</v>
+      </c>
+      <c r="F177">
+        <v>8741</v>
+      </c>
+      <c r="G177">
+        <v>6692</v>
+      </c>
+      <c r="H177">
+        <v>2084</v>
+      </c>
+      <c r="I177">
+        <v>2200</v>
+      </c>
+      <c r="J177">
+        <v>20022</v>
+      </c>
+      <c r="K177">
+        <v>3849</v>
+      </c>
+      <c r="L177">
+        <v>5834</v>
+      </c>
+      <c r="M177">
+        <v>7315</v>
+      </c>
+      <c r="N177">
+        <v>1368</v>
+      </c>
+      <c r="O177">
+        <v>893</v>
+      </c>
+      <c r="P177">
+        <v>438</v>
+      </c>
+      <c r="Q177">
+        <v>324</v>
+      </c>
+      <c r="R177">
+        <v>73909</v>
+      </c>
+      <c r="S177">
+        <v>12446</v>
+      </c>
+      <c r="T177">
+        <v>20141</v>
+      </c>
+      <c r="U177">
+        <v>24628</v>
+      </c>
+      <c r="V177">
+        <v>7373</v>
+      </c>
+      <c r="W177">
+        <v>5799</v>
+      </c>
+      <c r="X177">
+        <v>1646</v>
+      </c>
+      <c r="Y177">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y177"/>
+  <dimension ref="A1:Y178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14350,13 +14353,13 @@
         <v>29765</v>
       </c>
       <c r="E175">
-        <v>29681</v>
+        <v>29682</v>
       </c>
       <c r="F175">
-        <v>6882</v>
+        <v>6881</v>
       </c>
       <c r="G175">
-        <v>5205</v>
+        <v>5206</v>
       </c>
       <c r="H175">
         <v>2347</v>
@@ -14398,10 +14401,10 @@
         <v>22721</v>
       </c>
       <c r="U175">
-        <v>23072</v>
+        <v>23073</v>
       </c>
       <c r="V175">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="W175">
         <v>4389</v>
@@ -14418,7 +14421,7 @@
         <v>185</v>
       </c>
       <c r="B176">
-        <v>88072</v>
+        <v>88067</v>
       </c>
       <c r="C176">
         <v>17689</v>
@@ -14427,19 +14430,19 @@
         <v>22216</v>
       </c>
       <c r="E176">
-        <v>31134</v>
+        <v>31475</v>
       </c>
       <c r="F176">
-        <v>6704</v>
+        <v>6735</v>
       </c>
       <c r="G176">
-        <v>4755</v>
+        <v>4703</v>
       </c>
       <c r="H176">
-        <v>3458</v>
+        <v>3159</v>
       </c>
       <c r="I176">
-        <v>2116</v>
+        <v>2091</v>
       </c>
       <c r="J176">
         <v>18554</v>
@@ -14466,7 +14469,7 @@
         <v>150</v>
       </c>
       <c r="R176">
-        <v>69519</v>
+        <v>69514</v>
       </c>
       <c r="S176">
         <v>13263</v>
@@ -14475,19 +14478,19 @@
         <v>16524</v>
       </c>
       <c r="U176">
-        <v>24932</v>
+        <v>25273</v>
       </c>
       <c r="V176">
-        <v>6038</v>
+        <v>6069</v>
       </c>
       <c r="W176">
-        <v>4238</v>
+        <v>4186</v>
       </c>
       <c r="X176">
-        <v>2557</v>
+        <v>2257</v>
       </c>
       <c r="Y176">
-        <v>1966</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -14495,25 +14498,25 @@
         <v>186</v>
       </c>
       <c r="B177">
-        <v>93932</v>
+        <v>93927</v>
       </c>
       <c r="C177">
         <v>16296</v>
       </c>
       <c r="D177">
-        <v>25976</v>
+        <v>26091</v>
       </c>
       <c r="E177">
-        <v>31944</v>
+        <v>32313</v>
       </c>
       <c r="F177">
-        <v>8741</v>
+        <v>8446</v>
       </c>
       <c r="G177">
-        <v>6692</v>
+        <v>6607</v>
       </c>
       <c r="H177">
-        <v>2084</v>
+        <v>1975</v>
       </c>
       <c r="I177">
         <v>2200</v>
@@ -14543,28 +14546,105 @@
         <v>324</v>
       </c>
       <c r="R177">
-        <v>73909</v>
+        <v>73905</v>
       </c>
       <c r="S177">
         <v>12446</v>
       </c>
       <c r="T177">
-        <v>20141</v>
+        <v>20257</v>
       </c>
       <c r="U177">
-        <v>24628</v>
+        <v>24997</v>
       </c>
       <c r="V177">
-        <v>7373</v>
+        <v>7078</v>
       </c>
       <c r="W177">
-        <v>5799</v>
+        <v>5714</v>
       </c>
       <c r="X177">
-        <v>1646</v>
+        <v>1537</v>
       </c>
       <c r="Y177">
         <v>1875</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178">
+        <v>100593</v>
+      </c>
+      <c r="C178">
+        <v>16596</v>
+      </c>
+      <c r="D178">
+        <v>29446</v>
+      </c>
+      <c r="E178">
+        <v>31378</v>
+      </c>
+      <c r="F178">
+        <v>8467</v>
+      </c>
+      <c r="G178">
+        <v>6227</v>
+      </c>
+      <c r="H178">
+        <v>5346</v>
+      </c>
+      <c r="I178">
+        <v>3134</v>
+      </c>
+      <c r="J178">
+        <v>23186</v>
+      </c>
+      <c r="K178">
+        <v>3472</v>
+      </c>
+      <c r="L178">
+        <v>7671</v>
+      </c>
+      <c r="M178">
+        <v>7153</v>
+      </c>
+      <c r="N178">
+        <v>1843</v>
+      </c>
+      <c r="O178">
+        <v>1096</v>
+      </c>
+      <c r="P178">
+        <v>1545</v>
+      </c>
+      <c r="Q178">
+        <v>405</v>
+      </c>
+      <c r="R178">
+        <v>77407</v>
+      </c>
+      <c r="S178">
+        <v>13124</v>
+      </c>
+      <c r="T178">
+        <v>21775</v>
+      </c>
+      <c r="U178">
+        <v>24225</v>
+      </c>
+      <c r="V178">
+        <v>6624</v>
+      </c>
+      <c r="W178">
+        <v>5130</v>
+      </c>
+      <c r="X178">
+        <v>3800</v>
+      </c>
+      <c r="Y178">
+        <v>2728</v>
       </c>
     </row>
   </sheetData>
